--- a/biology/Médecine/Syndrome_de_Robinow_(forme_récessive)/Syndrome_de_Robinow_(forme_récessive).xlsx
+++ b/biology/Médecine/Syndrome_de_Robinow_(forme_récessive)/Syndrome_de_Robinow_(forme_récessive).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Robinow est une ostéochondrodysplasie avec un faciès caractéristique
 et des anomalies des organes génitaux et urinaire. Cette pathologie est reconnue dès la naissance ou rapidement chez le nourrisson.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de la face fœtale
 Nanisme mésomélique type Robinow récessif</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène ROR2 (en) 602337 localisé sur le locus q22 du chromosome 9 codant le récepteur orphelin de la tyrosine-kinase.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">100 cas sont actuellement connus principalement dans les familles à fortes consanguinités notamment dans les populations turques ou Omani.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques faciales
-Macrocéphalie
+          <t>Caractéristiques faciales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Macrocéphalie
 Grand front proéminent
 Hypertélorisme marquée
 Yeux proéminents avec exophtalmie apparent par hypoplasie de la paupière inférieure
@@ -617,19 +640,7 @@
 Grandes bouches avec lèvre supérieure attachée découvrant souvent les incisives
 Dents courbes
 Langue bifide
-Oreilles bas implantées
-Anomalies du squelette
-Petite taille avec croissance lente
-Raccourcissement des membres atteignant surtout les avant-bras
-Hémi vertèbres et cotes absentes ou fusionnées
-Bradydactylie atteignant la phalange distale de l’index et de l’auriculaire
-Anomalies génitales
-Hypoplasie des organes génitaux externes chez le garçon comme chez la fille
-Malformations cardiaques
-Une fois sur 6 sténose de la valve pulmonaire. Ces malformations sont la principale cause de mortalité.
-Retard de développement
-Une personne sur 10 présentera un retard léger.
-</t>
+Oreilles bas implantées</t>
         </is>
       </c>
     </row>
@@ -639,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,85 +665,394 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anomalies du squelette</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Petite taille avec croissance lente
+Raccourcissement des membres atteignant surtout les avant-bras
+Hémi vertèbres et cotes absentes ou fusionnées
+Bradydactylie atteignant la phalange distale de l’index et de l’auriculaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anomalies génitales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoplasie des organes génitaux externes chez le garçon comme chez la fille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Malformations cardiaques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fois sur 6 sténose de la valve pulmonaire. Ces malformations sont la principale cause de mortalité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Retard de développement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une personne sur 10 présentera un retard léger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Clinique
-Les signes de la description permettront d’orienter la recherche de la mutation.
-Génétique
-Le séquençage permet de retrouver la mutation dans près de tous les cas connus.
-Diagnostic différentiel
-Syndrome de Robinow (forme dominante)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signes de la description permettront d’orienter la recherche de la mutation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le séquençage permet de retrouver la mutation dans près de tous les cas connus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Syndrome de Robinow (forme dominante)
 Syndrome de Jarco-Levin
 Syndrome d'Aarskog
 Omodysplasie</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique récessive
-Diagnostic prénatal
-Génétique
-La recherche de la mutation est possible par biopsie de trophoblaste ou amniocentèse
-Échographique
-Dans les familles à haut risque, l’échographie recherchera une cardiopathie congénitale et l’étude du rapport humérus sur cubitus est un moyen sensible de dépistage.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche de la mutation est possible par biopsie de trophoblaste ou amniocentèse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Échographique</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les familles à haut risque, l’échographie recherchera une cardiopathie congénitale et l’étude du rapport humérus sur cubitus est un moyen sensible de dépistage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Robinow_(forme_récessive)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Robinow_(forme_r%C3%A9cessive)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 268310
 (en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 rob
